--- a/CR - Cost Report/Preparation oral/3_Financial and production risk management/margin vs volume.xlsx
+++ b/CR - Cost Report/Preparation oral/3_Financial and production risk management/margin vs volume.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Documents\EPSA\Optipute\CR - Cost Report\Preparation oral\3_Financial and production risk management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\Preparation oral\3_Financial and production risk management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAEB807-4142-4DD1-B4EC-1D64F6A86607}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9DC9AA2C-1BC3-41F5-9068-00D4239BAC93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,6 +138,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -219,7 +219,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000</c:v>
@@ -234,10 +234,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -294,7 +294,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10000</c:v>
@@ -309,10 +309,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +339,7 @@
         <c:axId val="362332808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="800"/>
+          <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -383,6 +383,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -457,8 +458,6 @@
         <c:axId val="362333792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
-          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -502,6 +501,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -582,6 +582,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -613,6 +614,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -620,7 +622,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1207,10 +1208,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4EC83EA2-2C2F-471A-A156-77C2CE8F641E}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1221,7 +1222,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:ext cx="9294725" cy="6070879"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -1546,16 +1547,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114A6E7A-5AD1-4B1E-A6AA-E531BBEF20F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1566,26 +1567,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
